--- a/Chicago_review_data.xlsx
+++ b/Chicago_review_data.xlsx
@@ -14,24 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1251">
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>User Location</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1252">
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>User_Location</t>
   </si>
   <si>
     <t>Stars</t>
   </si>
   <si>
-    <t>Entry Date</t>
-  </si>
-  <si>
-    <t>Entry Quote</t>
-  </si>
-  <si>
-    <t>Entry Content</t>
+    <t>Entry_Date</t>
+  </si>
+  <si>
+    <t>Entry_Quote</t>
+  </si>
+  <si>
+    <t>Entry_Content</t>
   </si>
   <si>
     <t>pathopa</t>
@@ -421,7 +421,7 @@
     <t>msaraa</t>
   </si>
   <si>
-    <t>Brandon D</t>
+    <t>273brandond</t>
   </si>
   <si>
     <t>DeniseB866</t>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Saint Louis, Missouri</t>
   </si>
   <si>
     <t>New Iberia, Louisiana, United States</t>
@@ -4168,13 +4171,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4188,13 +4191,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4208,13 +4211,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4231,13 +4234,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4251,13 +4254,13 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G6" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4274,13 +4277,13 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G7" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4294,13 +4297,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G8" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4317,13 +4320,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G9" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4340,13 +4343,13 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4363,13 +4366,13 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F11" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G11" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4386,13 +4389,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G12" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4406,13 +4409,13 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F13" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G13" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4429,13 +4432,13 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F14" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G14" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4452,13 +4455,13 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F15" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G15" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4472,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G16" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4492,13 +4495,13 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G17" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4515,13 +4518,13 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G18" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4538,13 +4541,13 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F19" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G19" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4561,13 +4564,13 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G20" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4584,13 +4587,13 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G21" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4607,13 +4610,13 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G22" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4630,13 +4633,13 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F23" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G23" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4653,13 +4656,13 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F24" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G24" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4676,13 +4679,13 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G25" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4696,13 +4699,13 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F26" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G26" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4719,13 +4722,13 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F27" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G27" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4742,13 +4745,13 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F28" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G28" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4765,13 +4768,13 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F29" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G29" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4788,13 +4791,13 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F30" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G30" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4811,13 +4814,13 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F31" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G31" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4834,13 +4837,13 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F32" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G32" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4854,13 +4857,13 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G33" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4877,13 +4880,13 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F34" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G34" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4900,13 +4903,13 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F35" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G35" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4923,13 +4926,13 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F36" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G36" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4946,13 +4949,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F37" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G37" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4969,13 +4972,13 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G38" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4992,13 +4995,13 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F39" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G39" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5015,13 +5018,13 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F40" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G40" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5038,13 +5041,13 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F41" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G41" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5061,13 +5064,13 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F42" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G42" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5084,13 +5087,13 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F43" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G43" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5107,13 +5110,13 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F44" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G44" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5130,13 +5133,13 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F45" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G45" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5153,13 +5156,13 @@
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F46" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5176,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F47" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G47" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5199,13 +5202,13 @@
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F48" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G48" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5222,13 +5225,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F49" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G49" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5245,13 +5248,13 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F50" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G50" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5268,13 +5271,13 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F51" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G51" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5291,13 +5294,13 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F52" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G52" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5314,13 +5317,13 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F53" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G53" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5337,13 +5340,13 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F54" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G54" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -5360,13 +5363,13 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F55" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G55" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5383,13 +5386,13 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F56" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G56" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5406,13 +5409,13 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F57" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G57" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5429,13 +5432,13 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F58" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G58" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5449,13 +5452,13 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F59" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G59" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5469,13 +5472,13 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F60" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G60" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5492,13 +5495,13 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F61" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G61" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5515,13 +5518,13 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F62" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G62" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5538,13 +5541,13 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F63" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G63" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5558,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F64" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G64" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5581,13 +5584,13 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F65" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G65" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5604,13 +5607,13 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F66" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G66" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5627,13 +5630,13 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F67" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G67" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5647,13 +5650,13 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F68" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G68" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5667,13 +5670,13 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F69" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G69" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5690,13 +5693,13 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F70" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G70" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5713,13 +5716,13 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F71" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G71" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5736,13 +5739,13 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F72" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G72" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5756,13 +5759,13 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F73" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G73" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5776,13 +5779,13 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F74" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G74" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5799,13 +5802,13 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F75" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G75" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5819,13 +5822,13 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F76" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G76" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5839,13 +5842,13 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F77" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G77" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5862,13 +5865,13 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F78" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G78" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5885,13 +5888,13 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F79" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G79" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5905,13 +5908,13 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F80" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G80" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5928,13 +5931,13 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F81" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G81" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5951,13 +5954,13 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F82" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G82" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5974,13 +5977,13 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F83" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G83" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5997,13 +6000,13 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F84" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G84" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6020,13 +6023,13 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F85" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G85" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6043,13 +6046,13 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F86" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G86" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6066,13 +6069,13 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F87" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G87" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6089,13 +6092,13 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F88" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G88" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6112,13 +6115,13 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F89" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G89" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6132,13 +6135,13 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F90" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G90" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6155,13 +6158,13 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F91" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G91" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6178,13 +6181,13 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F92" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G92" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6198,13 +6201,13 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F93" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G93" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -6218,13 +6221,13 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F94" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G94" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6241,13 +6244,13 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F95" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G95" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6264,13 +6267,13 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F96" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G96" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6287,13 +6290,13 @@
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F97" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G97" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6310,13 +6313,13 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F98" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G98" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6330,13 +6333,13 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F99" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G99" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -6353,13 +6356,13 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F100" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G100" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -6376,13 +6379,13 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F101" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G101" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -6399,13 +6402,13 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F102" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G102" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -6422,13 +6425,13 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F103" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G103" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -6445,13 +6448,13 @@
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F104" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G104" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -6468,13 +6471,13 @@
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F105" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G105" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -6491,13 +6494,13 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F106" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G106" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -6514,13 +6517,13 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F107" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G107" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -6537,13 +6540,13 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F108" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G108" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -6557,13 +6560,13 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F109" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G109" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -6580,13 +6583,13 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F110" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G110" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -6603,13 +6606,13 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F111" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G111" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -6626,13 +6629,13 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F112" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G112" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6649,13 +6652,13 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F113" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G113" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6672,13 +6675,13 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F114" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G114" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6695,13 +6698,13 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F115" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G115" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6718,13 +6721,13 @@
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F116" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G116" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6741,13 +6744,13 @@
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F117" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G117" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6764,13 +6767,13 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F118" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G118" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -6787,13 +6790,13 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F119" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G119" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -6810,13 +6813,13 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F120" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G120" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -6833,13 +6836,13 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F121" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G121" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6856,13 +6859,13 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F122" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G122" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6879,13 +6882,13 @@
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F123" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G123" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -6902,13 +6905,13 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F124" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G124" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -6925,13 +6928,13 @@
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F125" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G125" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -6948,13 +6951,13 @@
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F126" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G126" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -6971,13 +6974,13 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F127" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G127" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -6994,13 +6997,13 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F128" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G128" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -7017,13 +7020,13 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F129" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G129" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7037,13 +7040,13 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F130" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G130" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7057,13 +7060,13 @@
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F131" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G131" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7073,17 +7076,20 @@
       <c r="B132" t="s">
         <v>135</v>
       </c>
+      <c r="C132" t="s">
+        <v>368</v>
+      </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F132" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G132" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7094,19 +7100,19 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D133">
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F133" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G133" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -7117,19 +7123,19 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D134">
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F134" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G134" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7140,19 +7146,19 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D135">
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F135" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G135" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -7166,13 +7172,13 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F136" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G136" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -7183,19 +7189,19 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D137">
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F137" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G137" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7209,13 +7215,13 @@
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F138" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G138" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7229,13 +7235,13 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F139" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G139" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -7252,13 +7258,13 @@
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F140" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G140" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -7269,19 +7275,19 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D141">
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F141" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G141" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7298,13 +7304,13 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F142" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G142" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -7315,19 +7321,19 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F143" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G143" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -7344,13 +7350,13 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F144" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G144" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -7367,13 +7373,13 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F145" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G145" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -7384,19 +7390,19 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F146" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G146" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -7407,19 +7413,19 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D147">
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F147" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G147" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -7430,19 +7436,19 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D148">
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F148" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G148" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -7453,19 +7459,19 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F149" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G149" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -7479,13 +7485,13 @@
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F150" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G150" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -7499,13 +7505,13 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F151" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G151" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -7516,19 +7522,19 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D152">
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F152" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G152" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -7539,19 +7545,19 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D153">
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F153" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G153" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -7565,13 +7571,13 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F154" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G154" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -7588,13 +7594,13 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F155" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G155" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7611,13 +7617,13 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F156" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G156" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -7628,19 +7634,19 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D157">
         <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F157" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G157" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -7651,19 +7657,19 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D158">
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F158" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G158" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7674,19 +7680,19 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F159" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G159" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7700,13 +7706,13 @@
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F160" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G160" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -7717,19 +7723,19 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D161">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F161" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G161" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -7746,13 +7752,13 @@
         <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F162" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G162" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -7763,19 +7769,19 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F163" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G163" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -7786,19 +7792,19 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D164">
         <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F164" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G164" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -7809,19 +7815,19 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D165">
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F165" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G165" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -7832,19 +7838,19 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D166">
         <v>4</v>
       </c>
       <c r="E166" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F166" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G166" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -7861,13 +7867,13 @@
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F167" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G167" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -7878,19 +7884,19 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F168" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G168" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -7901,19 +7907,19 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D169">
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F169" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G169" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -7924,19 +7930,19 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D170">
         <v>4</v>
       </c>
       <c r="E170" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F170" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G170" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -7953,13 +7959,13 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F171" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G171" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7970,19 +7976,19 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D172">
         <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F172" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G172" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -7993,19 +7999,19 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D173">
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F173" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G173" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -8016,19 +8022,19 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F174" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G174" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -8045,13 +8051,13 @@
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F175" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G175" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -8068,13 +8074,13 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F176" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G176" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -8085,19 +8091,19 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D177">
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F177" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G177" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -8108,19 +8114,19 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D178">
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F178" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G178" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -8137,13 +8143,13 @@
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F179" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G179" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -8154,19 +8160,19 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D180">
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F180" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G180" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -8177,19 +8183,19 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D181">
         <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F181" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G181" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -8200,19 +8206,19 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D182">
         <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F182" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G182" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -8223,19 +8229,19 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D183">
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F183" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G183" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -8252,13 +8258,13 @@
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F184" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G184" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -8269,19 +8275,19 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D185">
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F185" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G185" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -8292,19 +8298,19 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D186">
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F186" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G186" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -8318,13 +8324,13 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F187" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G187" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -8335,19 +8341,19 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D188">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F188" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G188" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -8358,19 +8364,19 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D189">
         <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F189" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G189" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -8381,19 +8387,19 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D190">
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F190" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G190" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -8404,19 +8410,19 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D191">
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F191" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G191" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -8427,19 +8433,19 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D192">
         <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F192" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G192" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -8450,19 +8456,19 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D193">
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F193" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G193" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -8473,19 +8479,19 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D194">
         <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F194" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G194" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -8496,19 +8502,19 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D195">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F195" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G195" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -8525,13 +8531,13 @@
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F196" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G196" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -8548,13 +8554,13 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F197" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G197" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -8565,19 +8571,19 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D198">
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F198" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G198" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -8588,19 +8594,19 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D199">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F199" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G199" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -8611,19 +8617,19 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D200">
         <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F200" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G200" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -8634,19 +8640,19 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D201">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F201" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G201" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -8663,13 +8669,13 @@
         <v>5</v>
       </c>
       <c r="E202" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F202" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G202" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -8680,19 +8686,19 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D203">
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F203" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G203" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -8703,19 +8709,19 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D204">
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F204" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G204" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -8726,19 +8732,19 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F205" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G205" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -8749,19 +8755,19 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D206">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F206" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G206" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -8775,13 +8781,13 @@
         <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F207" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G207" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8795,13 +8801,13 @@
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F208" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G208" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -8818,13 +8824,13 @@
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F209" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G209" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -8835,19 +8841,19 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D210">
         <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F210" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G210" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -8858,19 +8864,19 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D211">
         <v>5</v>
       </c>
       <c r="E211" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F211" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G211" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -8881,19 +8887,19 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D212">
         <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F212" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G212" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -8904,19 +8910,19 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D213">
         <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F213" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G213" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -8927,19 +8933,19 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D214">
         <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F214" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G214" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -8950,19 +8956,19 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D215">
         <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F215" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G215" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -8973,19 +8979,19 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D216">
         <v>5</v>
       </c>
       <c r="E216" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F216" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G216" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -8996,19 +9002,19 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D217">
         <v>5</v>
       </c>
       <c r="E217" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F217" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G217" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -9019,19 +9025,19 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D218">
         <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F218" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G218" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -9042,19 +9048,19 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D219">
         <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F219" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G219" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -9071,13 +9077,13 @@
         <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F220" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G220" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -9088,19 +9094,19 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D221">
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F221" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G221" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -9111,19 +9117,19 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D222">
         <v>4</v>
       </c>
       <c r="E222" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F222" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G222" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -9134,19 +9140,19 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D223">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F223" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G223" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -9157,19 +9163,19 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D224">
         <v>1</v>
       </c>
       <c r="E224" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F224" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G224" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -9180,19 +9186,19 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D225">
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F225" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G225" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -9206,13 +9212,13 @@
         <v>4</v>
       </c>
       <c r="E226" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F226" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G226" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -9226,13 +9232,13 @@
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F227" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G227" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -9249,13 +9255,13 @@
         <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F228" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G228" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -9272,13 +9278,13 @@
         <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F229" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G229" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -9289,19 +9295,19 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D230">
         <v>3</v>
       </c>
       <c r="E230" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F230" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G230" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -9312,19 +9318,19 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D231">
         <v>2</v>
       </c>
       <c r="E231" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F231" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G231" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -9335,19 +9341,19 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D232">
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F232" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G232" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -9358,19 +9364,19 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D233">
         <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F233" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G233" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -9381,19 +9387,19 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D234">
         <v>4</v>
       </c>
       <c r="E234" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F234" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G234" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -9404,19 +9410,19 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D235">
         <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F235" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G235" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -9427,19 +9433,19 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D236">
         <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F236" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G236" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -9450,19 +9456,19 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D237">
         <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F237" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G237" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -9473,19 +9479,19 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D238">
         <v>2</v>
       </c>
       <c r="E238" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F238" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G238" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -9496,19 +9502,19 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D239">
         <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F239" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G239" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -9525,13 +9531,13 @@
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F240" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G240" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -9548,13 +9554,13 @@
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F241" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G241" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -9571,13 +9577,13 @@
         <v>2</v>
       </c>
       <c r="E242" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F242" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G242" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -9594,13 +9600,13 @@
         <v>4</v>
       </c>
       <c r="E243" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F243" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G243" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -9614,13 +9620,13 @@
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F244" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G244" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -9634,13 +9640,13 @@
         <v>5</v>
       </c>
       <c r="E245" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F245" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G245" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -9651,19 +9657,19 @@
         <v>246</v>
       </c>
       <c r="C246" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D246">
         <v>5</v>
       </c>
       <c r="E246" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F246" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G246" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -9680,13 +9686,13 @@
         <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F247" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G247" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -9697,19 +9703,19 @@
         <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F248" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G248" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -9726,13 +9732,13 @@
         <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F249" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G249" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -9743,19 +9749,19 @@
         <v>250</v>
       </c>
       <c r="C250" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D250">
         <v>4</v>
       </c>
       <c r="E250" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F250" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G250" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -9769,13 +9775,13 @@
         <v>1</v>
       </c>
       <c r="E251" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F251" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="G251" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -9792,13 +9798,13 @@
         <v>5</v>
       </c>
       <c r="E252" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F252" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G252" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -9809,19 +9815,19 @@
         <v>253</v>
       </c>
       <c r="C253" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D253">
         <v>5</v>
       </c>
       <c r="E253" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F253" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G253" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -9835,13 +9841,13 @@
         <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F254" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G254" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -9858,13 +9864,13 @@
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F255" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G255" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -9875,19 +9881,19 @@
         <v>256</v>
       </c>
       <c r="C256" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D256">
         <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F256" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G256" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -9901,13 +9907,13 @@
         <v>5</v>
       </c>
       <c r="E257" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F257" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G257" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -9924,13 +9930,13 @@
         <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F258" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G258" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -9941,19 +9947,19 @@
         <v>259</v>
       </c>
       <c r="C259" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D259">
         <v>4</v>
       </c>
       <c r="E259" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F259" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G259" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -9964,19 +9970,19 @@
         <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D260">
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F260" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G260" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -9987,19 +9993,19 @@
         <v>261</v>
       </c>
       <c r="C261" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D261">
         <v>5</v>
       </c>
       <c r="E261" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F261" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G261" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -10016,13 +10022,13 @@
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F262" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G262" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -10033,19 +10039,19 @@
         <v>263</v>
       </c>
       <c r="C263" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D263">
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F263" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G263" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -10056,19 +10062,19 @@
         <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D264">
         <v>4</v>
       </c>
       <c r="E264" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F264" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G264" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -10079,19 +10085,19 @@
         <v>265</v>
       </c>
       <c r="C265" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D265">
         <v>4</v>
       </c>
       <c r="E265" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F265" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G265" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -10108,13 +10114,13 @@
         <v>5</v>
       </c>
       <c r="E266" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F266" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G266" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -10128,13 +10134,13 @@
         <v>2</v>
       </c>
       <c r="E267" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F267" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G267" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -10151,13 +10157,13 @@
         <v>5</v>
       </c>
       <c r="E268" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F268" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G268" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -10168,19 +10174,19 @@
         <v>269</v>
       </c>
       <c r="C269" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D269">
         <v>5</v>
       </c>
       <c r="E269" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F269" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G269" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -10191,19 +10197,19 @@
         <v>270</v>
       </c>
       <c r="C270" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D270">
         <v>4</v>
       </c>
       <c r="E270" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F270" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G270" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -10214,19 +10220,19 @@
         <v>271</v>
       </c>
       <c r="C271" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D271">
         <v>5</v>
       </c>
       <c r="E271" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F271" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G271" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -10237,19 +10243,19 @@
         <v>272</v>
       </c>
       <c r="C272" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D272">
         <v>5</v>
       </c>
       <c r="E272" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F272" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G272" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -10260,19 +10266,19 @@
         <v>273</v>
       </c>
       <c r="C273" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D273">
         <v>5</v>
       </c>
       <c r="E273" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F273" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G273" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -10289,13 +10295,13 @@
         <v>5</v>
       </c>
       <c r="E274" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F274" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G274" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -10306,19 +10312,19 @@
         <v>275</v>
       </c>
       <c r="C275" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D275">
         <v>5</v>
       </c>
       <c r="E275" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F275" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G275" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -10335,13 +10341,13 @@
         <v>5</v>
       </c>
       <c r="E276" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F276" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G276" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -10352,19 +10358,19 @@
         <v>277</v>
       </c>
       <c r="C277" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D277">
         <v>5</v>
       </c>
       <c r="E277" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F277" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G277" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
